--- a/30 output/fig1.xlsx
+++ b/30 output/fig1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\學習\碩士\碩論\TYP_Sleep-Emo\30 output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C44F32A-10C7-423A-BF38-3D057AFE9FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F467C136-BB29-4AA2-99FC-659EC476C338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9727" yWindow="193" windowWidth="9573" windowHeight="9667" xr2:uid="{CB96DB0F-5CFC-4B5B-A51A-F03397D07DCF}"/>
+    <workbookView xWindow="30885" yWindow="-180" windowWidth="22890" windowHeight="14775" xr2:uid="{CB96DB0F-5CFC-4B5B-A51A-F03397D07DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="fig1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>負面情緒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,14 @@
     <t>mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -81,48 +89,25 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -132,21 +117,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,311 +444,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DED496F-1FF3-4633-9388-EB022A49DD96}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>1.4382349999999999</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D2" s="1">
+        <v>1.409211</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.467258</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>1.398806</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D3" s="1">
+        <v>1.3714360000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.4261760000000001</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>1.503155</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D4" s="1">
+        <v>1.4732130000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.5330969999999999</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>18</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>1.3938820000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D5" s="1">
+        <v>1.3632310000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.424533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>22</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1.542786</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D6" s="1">
+        <v>1.508281</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.5772919999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>24</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1.4904489999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D7" s="1">
+        <v>1.4557070000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.52519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>27</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>1.4787570000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D8" s="1">
+        <v>1.4417249999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.5157890000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>30</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>1.505233</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D9" s="1">
+        <v>1.465991</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.544475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>2.9658169999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D10" s="1">
+        <v>2.9293</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.0023330000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>14</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>2.9409909999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D11" s="1">
+        <v>2.9056760000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.976305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>15</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>2.844211</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D12" s="1">
+        <v>2.8103129999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.8781080000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>18</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>2.963924</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D13" s="1">
+        <v>2.934723</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.993125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>22</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>2.8362090000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D14" s="1">
+        <v>2.8084850000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.863934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>24</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>2.9665360000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D15" s="1">
+        <v>2.9385750000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.9944959999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>27</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>2.9494250000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D16" s="1">
+        <v>2.9204050000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.9784440000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>2.9393099999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D17" s="1">
+        <v>2.9092920000000002</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.969328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>13</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>1.5605899999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D18" s="1">
+        <v>1.524537</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.5966419999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>14</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>1.606252</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D19" s="1">
+        <v>1.5717719999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.640733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>15</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>1.794602</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D20" s="1">
+        <v>1.757579</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.831626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>1.822257</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D21" s="1">
+        <v>1.780222</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.8642920000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>22</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>1.7646269999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D22" s="1">
+        <v>1.7264619999999999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.8027930000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>24</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>1.6100019999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D23" s="1">
+        <v>1.5714840000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.6485209999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>1.5086189999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="1">
+        <v>1.4727870000000001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.5444500000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>30</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>1.4892810000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.449546</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.5290159999999999</v>
       </c>
     </row>
   </sheetData>
